--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1413,7 +1413,7 @@
 </t>
   </si>
   <si>
-    <t>Primer Apellido</t>
+    <t>Apellidos del Profesional</t>
   </si>
   <si>
     <t>Se debe ingresar el primer apellido, segun indica su identificacion personal</t>
@@ -1487,7 +1487,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
+    <t>Nombres del Profesional</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>88</v>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>79</v>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>88</v>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1074">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1314,7 +1314,7 @@
 </t>
   </si>
   <si>
-    <t>Nombre del prestador</t>
+    <t>Nombre(s) y apellido(s) del profesional</t>
   </si>
   <si>
     <t>The name(s) associated with the practitioner.</t>
@@ -1413,7 +1413,7 @@
 </t>
   </si>
   <si>
-    <t>Apellidos del Profesional</t>
+    <t>Primer apellido del profesional</t>
   </si>
   <si>
     <t>Se debe ingresar el primer apellido, segun indica su identificacion personal</t>
@@ -1462,6 +1462,9 @@
 </t>
   </si>
   <si>
+    <t>Segundo apellido del profesional</t>
+  </si>
+  <si>
     <t>Segundo Apellido</t>
   </si>
   <si>
@@ -1487,7 +1490,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Nombres del Profesional</t>
+    <t>Nombre(s) del Profesional</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -15482,7 +15485,7 @@
         <v>468</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15562,10 +15565,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15591,10 +15594,10 @@
         <v>178</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15618,7 +15621,7 @@
         <v>77</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X105" t="s" s="2">
         <v>77</v>
@@ -15645,7 +15648,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15674,14 +15677,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15703,13 +15706,13 @@
         <v>178</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15759,7 +15762,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15774,13 +15777,13 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>77</v>
@@ -15788,10 +15791,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15817,10 +15820,10 @@
         <v>178</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15871,7 +15874,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15886,13 +15889,13 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>77</v>
@@ -15900,10 +15903,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15929,10 +15932,10 @@
         <v>178</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15983,7 +15986,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15998,10 +16001,10 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>77</v>
@@ -16012,10 +16015,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16041,14 +16044,14 @@
         <v>304</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -16097,7 +16100,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -16112,10 +16115,10 @@
         <v>100</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>310</v>
@@ -16126,10 +16129,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16152,19 +16155,19 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -16213,7 +16216,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -16228,13 +16231,13 @@
         <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>77</v>
@@ -16242,10 +16245,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16354,10 +16357,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16468,10 +16471,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16497,10 +16500,10 @@
         <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16530,10 +16533,10 @@
         <v>196</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -16551,7 +16554,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -16560,19 +16563,19 @@
         <v>88</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>77</v>
@@ -16580,10 +16583,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16609,16 +16612,16 @@
         <v>178</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -16667,7 +16670,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16682,10 +16685,10 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>301</v>
@@ -16696,10 +16699,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16725,16 +16728,16 @@
         <v>108</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -16762,10 +16765,10 @@
         <v>196</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>77</v>
@@ -16783,7 +16786,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -16798,13 +16801,13 @@
         <v>100</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>440</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>77</v>
@@ -16812,10 +16815,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16838,16 +16841,16 @@
         <v>89</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16897,7 +16900,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -16926,10 +16929,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16955,10 +16958,10 @@
         <v>304</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17009,7 +17012,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -17027,7 +17030,7 @@
         <v>131</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>310</v>
@@ -17038,10 +17041,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17064,19 +17067,19 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -17125,7 +17128,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -17140,13 +17143,13 @@
         <v>100</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>77</v>
@@ -17154,10 +17157,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17266,10 +17269,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17298,7 +17301,7 @@
         <v>134</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17378,13 +17381,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -17406,16 +17409,16 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17494,10 +17497,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17523,16 +17526,16 @@
         <v>108</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -17542,10 +17545,10 @@
         <v>77</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="U122" t="s" s="2">
         <v>77</v>
@@ -17560,10 +17563,10 @@
         <v>196</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -17581,7 +17584,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -17596,13 +17599,13 @@
         <v>100</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>440</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>77</v>
@@ -17610,10 +17613,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17639,13 +17642,13 @@
         <v>108</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17659,7 +17662,7 @@
         <v>77</v>
       </c>
       <c r="T123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U123" t="s" s="2">
         <v>77</v>
@@ -17674,10 +17677,10 @@
         <v>196</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>77</v>
@@ -17695,7 +17698,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -17710,7 +17713,7 @@
         <v>100</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>440</v>
@@ -17724,10 +17727,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17753,13 +17756,13 @@
         <v>178</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>446</v>
@@ -17775,7 +17778,7 @@
         <v>77</v>
       </c>
       <c r="T124" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="U124" t="s" s="2">
         <v>77</v>
@@ -17811,7 +17814,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -17826,7 +17829,7 @@
         <v>100</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>449</v>
@@ -17840,10 +17843,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17869,10 +17872,10 @@
         <v>178</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17887,7 +17890,7 @@
         <v>77</v>
       </c>
       <c r="T125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="U125" t="s" s="2">
         <v>77</v>
@@ -17923,7 +17926,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -17938,13 +17941,13 @@
         <v>100</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17952,14 +17955,14 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -17981,10 +17984,10 @@
         <v>178</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17999,7 +18002,7 @@
         <v>77</v>
       </c>
       <c r="T126" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="U126" t="s" s="2">
         <v>77</v>
@@ -18035,7 +18038,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -18050,13 +18053,13 @@
         <v>100</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -18064,10 +18067,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18176,10 +18179,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18205,10 +18208,10 @@
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18286,13 +18289,13 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -18314,13 +18317,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18400,10 +18403,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18429,10 +18432,10 @@
         <v>178</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18456,7 +18459,7 @@
         <v>77</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X130" t="s" s="2">
         <v>77</v>
@@ -18483,7 +18486,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -18512,14 +18515,14 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -18541,13 +18544,13 @@
         <v>178</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18561,7 +18564,7 @@
         <v>77</v>
       </c>
       <c r="T131" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="U131" t="s" s="2">
         <v>77</v>
@@ -18597,7 +18600,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -18612,10 +18615,10 @@
         <v>100</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>77</v>
@@ -18626,10 +18629,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18738,10 +18741,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18767,10 +18770,10 @@
         <v>133</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18848,13 +18851,13 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>77</v>
@@ -18876,13 +18879,13 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -18962,10 +18965,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18991,10 +18994,10 @@
         <v>178</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19018,7 +19021,7 @@
         <v>77</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X135" t="s" s="2">
         <v>77</v>
@@ -19045,7 +19048,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -19074,14 +19077,14 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -19103,10 +19106,10 @@
         <v>178</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19157,7 +19160,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -19172,13 +19175,13 @@
         <v>100</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>77</v>
@@ -19186,10 +19189,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19298,10 +19301,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19327,10 +19330,10 @@
         <v>133</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19408,13 +19411,13 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="B139" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="C139" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>77</v>
@@ -19436,13 +19439,13 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19522,10 +19525,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19551,10 +19554,10 @@
         <v>178</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19578,7 +19581,7 @@
         <v>77</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>77</v>
@@ -19605,7 +19608,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -19634,14 +19637,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19663,10 +19666,10 @@
         <v>178</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -19681,7 +19684,7 @@
         <v>77</v>
       </c>
       <c r="T141" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="U141" t="s" s="2">
         <v>77</v>
@@ -19717,7 +19720,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -19732,13 +19735,13 @@
         <v>100</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>77</v>
@@ -19746,10 +19749,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19775,13 +19778,13 @@
         <v>178</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19831,7 +19834,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -19846,13 +19849,13 @@
         <v>100</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>77</v>
@@ -19860,10 +19863,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19972,10 +19975,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20001,10 +20004,10 @@
         <v>133</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20082,13 +20085,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -20196,10 +20199,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20225,10 +20228,10 @@
         <v>178</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20252,7 +20255,7 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>77</v>
@@ -20279,7 +20282,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -20308,10 +20311,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20337,14 +20340,14 @@
         <v>304</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>77</v>
@@ -20357,7 +20360,7 @@
         <v>77</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>77</v>
@@ -20393,7 +20396,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -20408,10 +20411,10 @@
         <v>100</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>310</v>
@@ -20422,10 +20425,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20451,14 +20454,14 @@
         <v>108</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -20486,10 +20489,10 @@
         <v>196</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>77</v>
@@ -20507,7 +20510,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>78</v>
@@ -20522,13 +20525,13 @@
         <v>100</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>77</v>
@@ -20536,10 +20539,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20562,17 +20565,17 @@
         <v>89</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>77</v>
@@ -20621,7 +20624,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -20636,13 +20639,13 @@
         <v>100</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>77</v>
@@ -20650,10 +20653,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20676,17 +20679,17 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -20735,7 +20738,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -20753,10 +20756,10 @@
         <v>77</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>77</v>
@@ -20764,10 +20767,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20790,13 +20793,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -20835,10 +20838,10 @@
         <v>77</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AD151" t="s" s="2">
         <v>77</v>
@@ -20847,7 +20850,7 @@
         <v>137</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -20862,13 +20865,13 @@
         <v>100</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>77</v>
@@ -20876,10 +20879,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20988,10 +20991,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21102,14 +21105,14 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21131,10 +21134,10 @@
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N154" t="s" s="2">
         <v>158</v>
@@ -21189,7 +21192,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -21218,10 +21221,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21247,14 +21250,14 @@
         <v>163</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>77</v>
@@ -21303,7 +21306,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -21321,7 +21324,7 @@
         <v>77</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>77</v>
@@ -21332,10 +21335,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21361,10 +21364,10 @@
         <v>203</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21391,11 +21394,11 @@
         <v>77</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>77</v>
@@ -21413,7 +21416,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>88</v>
@@ -21431,10 +21434,10 @@
         <v>77</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>77</v>
@@ -21442,10 +21445,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21471,14 +21474,14 @@
         <v>304</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>77</v>
@@ -21527,7 +21530,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -21545,10 +21548,10 @@
         <v>77</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>77</v>
@@ -21556,10 +21559,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21585,10 +21588,10 @@
         <v>313</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -21639,7 +21642,7 @@
         <v>77</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -21657,7 +21660,7 @@
         <v>77</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>77</v>
@@ -21668,13 +21671,13 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -21696,13 +21699,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21753,7 +21756,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -21768,13 +21771,13 @@
         <v>100</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>77</v>
@@ -21782,10 +21785,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21894,10 +21897,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22004,13 +22007,13 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>77</v>
@@ -22032,13 +22035,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22118,14 +22121,14 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -22147,10 +22150,10 @@
         <v>133</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>158</v>
@@ -22205,7 +22208,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -22234,10 +22237,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22263,14 +22266,14 @@
         <v>163</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>77</v>
@@ -22319,7 +22322,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -22337,7 +22340,7 @@
         <v>77</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>77</v>
@@ -22348,10 +22351,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22460,10 +22463,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22574,10 +22577,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22690,10 +22693,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22806,10 +22809,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22835,13 +22838,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>286</v>
@@ -22922,10 +22925,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22951,10 +22954,10 @@
         <v>178</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>296</v>
@@ -22968,7 +22971,7 @@
         <v>77</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>297</v>
@@ -23036,10 +23039,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23148,10 +23151,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23262,10 +23265,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23291,10 +23294,10 @@
         <v>203</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23325,7 +23328,7 @@
       </c>
       <c r="Y173" s="2"/>
       <c r="Z173" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>77</v>
@@ -23343,7 +23346,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>88</v>
@@ -23361,10 +23364,10 @@
         <v>77</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>77</v>
@@ -23372,10 +23375,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23484,10 +23487,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23598,10 +23601,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23714,10 +23717,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23826,10 +23829,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23940,10 +23943,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23969,10 +23972,10 @@
         <v>102</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>233</v>
@@ -24056,10 +24059,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24170,10 +24173,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24199,10 +24202,10 @@
         <v>108</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -24284,10 +24287,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24313,10 +24316,10 @@
         <v>178</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -24398,10 +24401,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24514,10 +24517,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24543,7 +24546,7 @@
         <v>178</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M184" t="s" s="2">
         <v>275</v>
@@ -24630,10 +24633,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24659,14 +24662,14 @@
         <v>304</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>77</v>
@@ -24715,7 +24718,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -24733,10 +24736,10 @@
         <v>77</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>77</v>
@@ -24744,10 +24747,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24856,10 +24859,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24970,10 +24973,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24996,16 +24999,16 @@
         <v>89</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -25055,7 +25058,7 @@
         <v>77</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>78</v>
@@ -25064,16 +25067,16 @@
         <v>88</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>77</v>
@@ -25084,10 +25087,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25110,23 +25113,23 @@
         <v>89</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q189" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R189" t="s" s="2">
         <v>77</v>
@@ -25171,7 +25174,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
@@ -25180,16 +25183,16 @@
         <v>88</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>77</v>
@@ -25200,10 +25203,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25229,10 +25232,10 @@
         <v>313</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25283,7 +25286,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -25301,7 +25304,7 @@
         <v>77</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>77</v>
@@ -25312,10 +25315,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25424,10 +25427,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25538,10 +25541,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25567,13 +25570,13 @@
         <v>178</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -25623,7 +25626,7 @@
         <v>77</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>78</v>
@@ -25632,7 +25635,7 @@
         <v>88</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>100</v>
@@ -25652,10 +25655,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25681,13 +25684,13 @@
         <v>102</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -25716,10 +25719,10 @@
         <v>365</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>77</v>
@@ -25737,7 +25740,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>78</v>
@@ -25766,10 +25769,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25795,13 +25798,13 @@
         <v>163</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -25851,7 +25854,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
@@ -25869,7 +25872,7 @@
         <v>77</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>77</v>
@@ -25880,10 +25883,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25909,13 +25912,13 @@
         <v>178</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -25965,7 +25968,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -25994,13 +25997,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>77</v>
@@ -26022,13 +26025,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26079,7 +26082,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -26094,13 +26097,13 @@
         <v>100</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>77</v>
@@ -26108,10 +26111,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26220,10 +26223,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26334,14 +26337,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -26363,10 +26366,10 @@
         <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N200" t="s" s="2">
         <v>158</v>
@@ -26421,7 +26424,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -26450,10 +26453,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26479,14 +26482,14 @@
         <v>163</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -26535,7 +26538,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -26553,7 +26556,7 @@
         <v>77</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>77</v>
@@ -26564,10 +26567,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26676,10 +26679,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26790,10 +26793,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26906,10 +26909,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27022,10 +27025,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27051,13 +27054,13 @@
         <v>102</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>286</v>
@@ -27138,10 +27141,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27167,10 +27170,10 @@
         <v>178</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N207" t="s" s="2">
         <v>296</v>
@@ -27184,7 +27187,7 @@
         <v>77</v>
       </c>
       <c r="S207" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T207" t="s" s="2">
         <v>297</v>
@@ -27252,10 +27255,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27364,10 +27367,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27478,10 +27481,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27507,10 +27510,10 @@
         <v>203</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -27541,7 +27544,7 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>77</v>
@@ -27559,7 +27562,7 @@
         <v>77</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>88</v>
@@ -27577,10 +27580,10 @@
         <v>77</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>77</v>
@@ -27588,10 +27591,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27700,10 +27703,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27814,10 +27817,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27930,10 +27933,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28042,10 +28045,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28156,10 +28159,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28185,10 +28188,10 @@
         <v>102</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N216" t="s" s="2">
         <v>233</v>
@@ -28272,10 +28275,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28386,10 +28389,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28500,10 +28503,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28529,10 +28532,10 @@
         <v>178</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
@@ -28614,10 +28617,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28730,10 +28733,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28759,7 +28762,7 @@
         <v>178</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M221" t="s" s="2">
         <v>275</v>
@@ -28846,10 +28849,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28875,14 +28878,14 @@
         <v>304</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>77</v>
@@ -28931,7 +28934,7 @@
         <v>77</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>78</v>
@@ -28949,10 +28952,10 @@
         <v>77</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>77</v>
@@ -28960,10 +28963,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29072,10 +29075,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29186,10 +29189,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29212,16 +29215,16 @@
         <v>89</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -29271,7 +29274,7 @@
         <v>77</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>78</v>
@@ -29280,16 +29283,16 @@
         <v>88</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>77</v>
@@ -29300,10 +29303,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29326,23 +29329,23 @@
         <v>89</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q226" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R226" t="s" s="2">
         <v>77</v>
@@ -29387,7 +29390,7 @@
         <v>77</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>78</v>
@@ -29396,16 +29399,16 @@
         <v>88</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>77</v>
@@ -29416,10 +29419,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29445,10 +29448,10 @@
         <v>313</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -29499,7 +29502,7 @@
         <v>77</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>78</v>
@@ -29517,7 +29520,7 @@
         <v>77</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>77</v>
@@ -29528,10 +29531,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29640,10 +29643,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29754,10 +29757,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29783,13 +29786,13 @@
         <v>178</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
@@ -29839,7 +29842,7 @@
         <v>77</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>78</v>
@@ -29848,7 +29851,7 @@
         <v>88</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>100</v>
@@ -29868,10 +29871,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29897,13 +29900,13 @@
         <v>102</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -29932,10 +29935,10 @@
         <v>365</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>77</v>
@@ -29953,7 +29956,7 @@
         <v>77</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>78</v>
@@ -29982,10 +29985,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30011,13 +30014,13 @@
         <v>163</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -30067,7 +30070,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -30085,7 +30088,7 @@
         <v>77</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>77</v>
@@ -30096,10 +30099,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30125,13 +30128,13 @@
         <v>178</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
@@ -30181,7 +30184,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>78</v>
@@ -30210,13 +30213,13 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>77</v>
@@ -30238,13 +30241,13 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -30295,7 +30298,7 @@
         <v>77</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>78</v>
@@ -30310,13 +30313,13 @@
         <v>100</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM234" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN234" t="s" s="2">
         <v>77</v>
@@ -30324,10 +30327,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30436,10 +30439,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30550,14 +30553,14 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
@@ -30579,10 +30582,10 @@
         <v>133</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N237" t="s" s="2">
         <v>158</v>
@@ -30637,7 +30640,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>78</v>
@@ -30666,10 +30669,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30695,14 +30698,14 @@
         <v>163</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>77</v>
@@ -30751,7 +30754,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>78</v>
@@ -30769,7 +30772,7 @@
         <v>77</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>77</v>
@@ -30780,10 +30783,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30892,10 +30895,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31006,10 +31009,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31122,10 +31125,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31238,10 +31241,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31267,13 +31270,13 @@
         <v>102</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>286</v>
@@ -31354,10 +31357,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31383,10 +31386,10 @@
         <v>178</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>296</v>
@@ -31400,7 +31403,7 @@
         <v>77</v>
       </c>
       <c r="S244" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T244" t="s" s="2">
         <v>297</v>
@@ -31468,10 +31471,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31580,10 +31583,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -31694,10 +31697,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -31723,10 +31726,10 @@
         <v>203</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -31757,7 +31760,7 @@
       </c>
       <c r="Y247" s="2"/>
       <c r="Z247" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>77</v>
@@ -31775,7 +31778,7 @@
         <v>77</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>88</v>
@@ -31793,10 +31796,10 @@
         <v>77</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN247" t="s" s="2">
         <v>77</v>
@@ -31804,10 +31807,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -31916,10 +31919,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32030,10 +32033,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32146,10 +32149,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32258,10 +32261,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -32372,10 +32375,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -32401,10 +32404,10 @@
         <v>102</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>233</v>
@@ -32488,10 +32491,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -32602,10 +32605,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -32716,10 +32719,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -32745,10 +32748,10 @@
         <v>178</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
@@ -32830,10 +32833,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -32946,10 +32949,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -32975,7 +32978,7 @@
         <v>178</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>275</v>
@@ -33062,10 +33065,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -33091,14 +33094,14 @@
         <v>304</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P259" t="s" s="2">
         <v>77</v>
@@ -33147,7 +33150,7 @@
         <v>77</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>78</v>
@@ -33165,10 +33168,10 @@
         <v>77</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM259" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN259" t="s" s="2">
         <v>77</v>
@@ -33176,10 +33179,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33288,10 +33291,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -33402,10 +33405,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -33428,16 +33431,16 @@
         <v>89</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
@@ -33487,7 +33490,7 @@
         <v>77</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>78</v>
@@ -33496,16 +33499,16 @@
         <v>88</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>77</v>
@@ -33516,10 +33519,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -33542,23 +33545,23 @@
         <v>89</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q263" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R263" t="s" s="2">
         <v>77</v>
@@ -33603,7 +33606,7 @@
         <v>77</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>78</v>
@@ -33612,16 +33615,16 @@
         <v>88</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>77</v>
@@ -33632,10 +33635,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -33661,10 +33664,10 @@
         <v>313</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -33715,7 +33718,7 @@
         <v>77</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>78</v>
@@ -33733,7 +33736,7 @@
         <v>77</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM264" t="s" s="2">
         <v>77</v>
@@ -33744,10 +33747,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -33856,10 +33859,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -33970,10 +33973,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -33999,13 +34002,13 @@
         <v>178</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
@@ -34055,7 +34058,7 @@
         <v>77</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>78</v>
@@ -34064,7 +34067,7 @@
         <v>88</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>100</v>
@@ -34084,10 +34087,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34113,13 +34116,13 @@
         <v>102</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
@@ -34148,10 +34151,10 @@
         <v>365</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AA268" t="s" s="2">
         <v>77</v>
@@ -34169,7 +34172,7 @@
         <v>77</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>78</v>
@@ -34198,10 +34201,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -34227,13 +34230,13 @@
         <v>163</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
@@ -34283,7 +34286,7 @@
         <v>77</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>78</v>
@@ -34301,7 +34304,7 @@
         <v>77</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>77</v>
@@ -34312,10 +34315,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -34341,13 +34344,13 @@
         <v>178</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
@@ -34397,7 +34400,7 @@
         <v>77</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>78</v>
@@ -34426,13 +34429,13 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
@@ -34454,13 +34457,13 @@
         <v>77</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -34511,7 +34514,7 @@
         <v>77</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>78</v>
@@ -34526,13 +34529,13 @@
         <v>100</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL271" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM271" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN271" t="s" s="2">
         <v>77</v>
@@ -34540,10 +34543,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -34652,10 +34655,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -34766,14 +34769,14 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" t="s" s="2">
@@ -34795,10 +34798,10 @@
         <v>133</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N274" t="s" s="2">
         <v>158</v>
@@ -34853,7 +34856,7 @@
         <v>77</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>78</v>
@@ -34882,10 +34885,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -34911,14 +34914,14 @@
         <v>163</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P275" t="s" s="2">
         <v>77</v>
@@ -34967,7 +34970,7 @@
         <v>77</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>78</v>
@@ -34985,7 +34988,7 @@
         <v>77</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>77</v>
@@ -34996,10 +34999,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -35108,10 +35111,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -35222,10 +35225,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -35338,10 +35341,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -35454,10 +35457,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -35483,13 +35486,13 @@
         <v>102</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>286</v>
@@ -35570,10 +35573,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -35599,10 +35602,10 @@
         <v>178</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N281" t="s" s="2">
         <v>296</v>
@@ -35616,7 +35619,7 @@
         <v>77</v>
       </c>
       <c r="S281" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="T281" t="s" s="2">
         <v>297</v>
@@ -35684,10 +35687,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -35796,10 +35799,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -35910,10 +35913,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -35939,10 +35942,10 @@
         <v>203</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
@@ -35973,7 +35976,7 @@
       </c>
       <c r="Y284" s="2"/>
       <c r="Z284" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>77</v>
@@ -35991,7 +35994,7 @@
         <v>77</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>88</v>
@@ -36009,10 +36012,10 @@
         <v>77</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM284" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN284" t="s" s="2">
         <v>77</v>
@@ -36020,10 +36023,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -36132,10 +36135,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -36246,10 +36249,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -36362,10 +36365,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -36391,7 +36394,7 @@
         <v>178</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>275</v>
@@ -36478,10 +36481,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -36507,14 +36510,14 @@
         <v>304</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>77</v>
@@ -36563,7 +36566,7 @@
         <v>77</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>78</v>
@@ -36581,10 +36584,10 @@
         <v>77</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM289" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN289" t="s" s="2">
         <v>77</v>
@@ -36592,10 +36595,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -36704,10 +36707,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -36818,10 +36821,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -36844,16 +36847,16 @@
         <v>89</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -36903,7 +36906,7 @@
         <v>77</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>78</v>
@@ -36912,16 +36915,16 @@
         <v>88</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>77</v>
@@ -36932,10 +36935,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -36958,23 +36961,23 @@
         <v>89</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q293" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R293" t="s" s="2">
         <v>77</v>
@@ -37019,7 +37022,7 @@
         <v>77</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>78</v>
@@ -37028,16 +37031,16 @@
         <v>88</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AL293" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AM293" t="s" s="2">
         <v>77</v>
@@ -37048,10 +37051,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -37077,10 +37080,10 @@
         <v>313</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -37131,7 +37134,7 @@
         <v>77</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>78</v>
@@ -37149,7 +37152,7 @@
         <v>77</v>
       </c>
       <c r="AL294" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM294" t="s" s="2">
         <v>77</v>
@@ -37160,10 +37163,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -37272,10 +37275,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -37386,10 +37389,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -37415,13 +37418,13 @@
         <v>178</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O297" s="2"/>
       <c r="P297" t="s" s="2">
@@ -37471,7 +37474,7 @@
         <v>77</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>78</v>
@@ -37480,7 +37483,7 @@
         <v>88</v>
       </c>
       <c r="AI297" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AJ297" t="s" s="2">
         <v>100</v>
@@ -37500,10 +37503,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -37529,13 +37532,13 @@
         <v>102</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
@@ -37564,10 +37567,10 @@
         <v>365</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Z298" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AA298" t="s" s="2">
         <v>77</v>
@@ -37585,7 +37588,7 @@
         <v>77</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>78</v>
@@ -37614,10 +37617,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -37643,13 +37646,13 @@
         <v>163</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
@@ -37699,7 +37702,7 @@
         <v>77</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>78</v>
@@ -37717,7 +37720,7 @@
         <v>77</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>77</v>
@@ -37728,10 +37731,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -37757,13 +37760,13 @@
         <v>178</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -37813,7 +37816,7 @@
         <v>77</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>78</v>
@@ -37842,13 +37845,13 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
@@ -37870,13 +37873,13 @@
         <v>77</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -37927,7 +37930,7 @@
         <v>77</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>78</v>
@@ -37942,13 +37945,13 @@
         <v>100</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM301" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN301" t="s" s="2">
         <v>77</v>
@@ -37956,10 +37959,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -38068,10 +38071,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -38182,14 +38185,14 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" t="s" s="2">
@@ -38211,10 +38214,10 @@
         <v>133</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>158</v>
@@ -38269,7 +38272,7 @@
         <v>77</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>78</v>
@@ -38298,10 +38301,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -38327,14 +38330,14 @@
         <v>163</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>77</v>
@@ -38383,7 +38386,7 @@
         <v>77</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>78</v>
@@ -38401,7 +38404,7 @@
         <v>77</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>77</v>
@@ -38412,10 +38415,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -38524,10 +38527,10 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -38638,10 +38641,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -38754,10 +38757,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -38870,10 +38873,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -38899,13 +38902,13 @@
         <v>102</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>286</v>
@@ -38986,10 +38989,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -39015,10 +39018,10 @@
         <v>178</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N311" t="s" s="2">
         <v>296</v>
@@ -39032,7 +39035,7 @@
         <v>77</v>
       </c>
       <c r="S311" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="T311" t="s" s="2">
         <v>297</v>
@@ -39100,10 +39103,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -39212,10 +39215,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -39326,10 +39329,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -39355,10 +39358,10 @@
         <v>203</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -39389,7 +39392,7 @@
       </c>
       <c r="Y314" s="2"/>
       <c r="Z314" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AA314" t="s" s="2">
         <v>77</v>
@@ -39407,7 +39410,7 @@
         <v>77</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>88</v>
@@ -39425,10 +39428,10 @@
         <v>77</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM314" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN314" t="s" s="2">
         <v>77</v>
@@ -39436,10 +39439,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -39548,10 +39551,10 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -39662,10 +39665,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -39778,10 +39781,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -39807,7 +39810,7 @@
         <v>178</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>275</v>
@@ -39894,10 +39897,10 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -39923,14 +39926,14 @@
         <v>304</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P319" t="s" s="2">
         <v>77</v>
@@ -39979,7 +39982,7 @@
         <v>77</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG319" t="s" s="2">
         <v>78</v>
@@ -39997,10 +40000,10 @@
         <v>77</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM319" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN319" t="s" s="2">
         <v>77</v>
@@ -40008,10 +40011,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -40037,10 +40040,10 @@
         <v>313</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -40091,7 +40094,7 @@
         <v>77</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>78</v>
@@ -40109,7 +40112,7 @@
         <v>77</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>77</v>
@@ -40120,13 +40123,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>77</v>
@@ -40148,13 +40151,13 @@
         <v>77</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -40205,7 +40208,7 @@
         <v>77</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>78</v>
@@ -40220,13 +40223,13 @@
         <v>100</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL321" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM321" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN321" t="s" s="2">
         <v>77</v>
@@ -40234,10 +40237,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -40346,10 +40349,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -40460,14 +40463,14 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" t="s" s="2">
@@ -40489,10 +40492,10 @@
         <v>133</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N324" t="s" s="2">
         <v>158</v>
@@ -40547,7 +40550,7 @@
         <v>77</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>78</v>
@@ -40576,10 +40579,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -40605,14 +40608,14 @@
         <v>163</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>77</v>
@@ -40661,7 +40664,7 @@
         <v>77</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>78</v>
@@ -40679,7 +40682,7 @@
         <v>77</v>
       </c>
       <c r="AL325" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>77</v>
@@ -40690,10 +40693,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -40802,10 +40805,10 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -40916,10 +40919,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -41032,10 +41035,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -41148,10 +41151,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -41177,13 +41180,13 @@
         <v>102</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>286</v>
@@ -41264,10 +41267,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -41293,10 +41296,10 @@
         <v>178</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N331" t="s" s="2">
         <v>296</v>
@@ -41310,7 +41313,7 @@
         <v>77</v>
       </c>
       <c r="S331" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="T331" t="s" s="2">
         <v>297</v>
@@ -41378,10 +41381,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -41490,10 +41493,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -41604,10 +41607,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -41633,10 +41636,10 @@
         <v>203</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
@@ -41667,7 +41670,7 @@
       </c>
       <c r="Y334" s="2"/>
       <c r="Z334" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AA334" t="s" s="2">
         <v>77</v>
@@ -41685,7 +41688,7 @@
         <v>77</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG334" t="s" s="2">
         <v>88</v>
@@ -41703,10 +41706,10 @@
         <v>77</v>
       </c>
       <c r="AL334" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM334" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN334" t="s" s="2">
         <v>77</v>
@@ -41714,10 +41717,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -41826,10 +41829,10 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -41940,10 +41943,10 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -42056,10 +42059,10 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -42085,7 +42088,7 @@
         <v>178</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M338" t="s" s="2">
         <v>275</v>
@@ -42172,10 +42175,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -42201,14 +42204,14 @@
         <v>304</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P339" t="s" s="2">
         <v>77</v>
@@ -42257,7 +42260,7 @@
         <v>77</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>78</v>
@@ -42275,10 +42278,10 @@
         <v>77</v>
       </c>
       <c r="AL339" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM339" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN339" t="s" s="2">
         <v>77</v>
@@ -42286,10 +42289,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -42398,10 +42401,10 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -42512,10 +42515,10 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -42538,16 +42541,16 @@
         <v>89</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O342" s="2"/>
       <c r="P342" t="s" s="2">
@@ -42597,7 +42600,7 @@
         <v>77</v>
       </c>
       <c r="AF342" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG342" t="s" s="2">
         <v>78</v>
@@ -42606,16 +42609,16 @@
         <v>88</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL342" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM342" t="s" s="2">
         <v>77</v>
@@ -42626,10 +42629,10 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -42652,23 +42655,23 @@
         <v>89</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q343" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R343" t="s" s="2">
         <v>77</v>
@@ -42713,7 +42716,7 @@
         <v>77</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>78</v>
@@ -42722,16 +42725,16 @@
         <v>88</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -42742,10 +42745,10 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -42771,10 +42774,10 @@
         <v>313</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
@@ -42825,7 +42828,7 @@
         <v>77</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>78</v>
@@ -42843,7 +42846,7 @@
         <v>77</v>
       </c>
       <c r="AL344" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM344" t="s" s="2">
         <v>77</v>
@@ -42854,10 +42857,10 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -42966,10 +42969,10 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -43080,10 +43083,10 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -43109,13 +43112,13 @@
         <v>178</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O347" s="2"/>
       <c r="P347" t="s" s="2">
@@ -43165,7 +43168,7 @@
         <v>77</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>78</v>
@@ -43174,7 +43177,7 @@
         <v>88</v>
       </c>
       <c r="AI347" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>100</v>
@@ -43194,10 +43197,10 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -43223,13 +43226,13 @@
         <v>102</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O348" s="2"/>
       <c r="P348" t="s" s="2">
@@ -43258,10 +43261,10 @@
         <v>365</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AA348" t="s" s="2">
         <v>77</v>
@@ -43279,7 +43282,7 @@
         <v>77</v>
       </c>
       <c r="AF348" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AG348" t="s" s="2">
         <v>78</v>
@@ -43308,10 +43311,10 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -43337,13 +43340,13 @@
         <v>163</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" t="s" s="2">
@@ -43393,7 +43396,7 @@
         <v>77</v>
       </c>
       <c r="AF349" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AG349" t="s" s="2">
         <v>78</v>
@@ -43411,7 +43414,7 @@
         <v>77</v>
       </c>
       <c r="AL349" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AM349" t="s" s="2">
         <v>77</v>
@@ -43422,10 +43425,10 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -43451,13 +43454,13 @@
         <v>178</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O350" s="2"/>
       <c r="P350" t="s" s="2">
@@ -43507,7 +43510,7 @@
         <v>77</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AG350" t="s" s="2">
         <v>78</v>
@@ -43536,10 +43539,10 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -43565,16 +43568,16 @@
         <v>203</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="P351" t="s" s="2">
         <v>77</v>
@@ -43623,7 +43626,7 @@
         <v>77</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AG351" t="s" s="2">
         <v>78</v>
@@ -43638,13 +43641,13 @@
         <v>100</v>
       </c>
       <c r="AK351" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AL351" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="AM351" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AN351" t="s" s="2">
         <v>77</v>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2352,7 +2352,7 @@
 </t>
   </si>
   <si>
-    <t>Mención profesional añadida l título profesional</t>
+    <t>Mención profesional añadida al título profesional</t>
   </si>
   <si>
     <t>Mención profesional obtenida junto con el título, dato que se agrega en texto lible</t>
